--- a/teaching/traditional_assets/database/data/jamaica/jamaica_insurance_life.xlsx
+++ b/teaching/traditional_assets/database/data/jamaica/jamaica_insurance_life.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.148</v>
+        <v>0.121</v>
       </c>
       <c r="E2">
-        <v>0.194</v>
+        <v>0.07679999999999999</v>
       </c>
       <c r="G2">
-        <v>0.2601046815934865</v>
+        <v>0.3078990592802747</v>
       </c>
       <c r="H2">
-        <v>0.2601046815934865</v>
+        <v>0.3078990592802747</v>
       </c>
       <c r="I2">
-        <v>0.2625100870077093</v>
+        <v>0.2441391667911005</v>
       </c>
       <c r="J2">
-        <v>0.2035622112356219</v>
+        <v>0.155083590069419</v>
       </c>
       <c r="K2">
-        <v>121.3</v>
+        <v>98</v>
       </c>
       <c r="L2">
-        <v>0.1763594068043036</v>
+        <v>0.1463341794833508</v>
       </c>
       <c r="M2">
-        <v>41.41</v>
+        <v>23.25</v>
       </c>
       <c r="N2">
-        <v>0.02009121342972199</v>
+        <v>0.01677368155255754</v>
       </c>
       <c r="O2">
-        <v>0.3413849958779885</v>
+        <v>0.2372448979591837</v>
       </c>
       <c r="P2">
-        <v>38.7</v>
+        <v>20.3</v>
       </c>
       <c r="Q2">
-        <v>0.01877638154383582</v>
+        <v>0.01464540797922228</v>
       </c>
       <c r="R2">
-        <v>0.3190436933223413</v>
+        <v>0.2071428571428572</v>
       </c>
       <c r="S2">
-        <v>2.710000000000001</v>
+        <v>2.949999999999999</v>
       </c>
       <c r="T2">
-        <v>0.06544312967882156</v>
+        <v>0.1268817204301075</v>
       </c>
       <c r="U2">
-        <v>151.6</v>
+        <v>146.7</v>
       </c>
       <c r="V2">
-        <v>0.0735529571587987</v>
+        <v>0.1058365197316211</v>
       </c>
       <c r="W2">
-        <v>0.2219173069886571</v>
+        <v>0.1528622679769147</v>
       </c>
       <c r="X2">
-        <v>0.1267404634153667</v>
+        <v>0.1129633422907675</v>
       </c>
       <c r="Y2">
-        <v>0.09517684357329043</v>
+        <v>0.03989892568614717</v>
       </c>
       <c r="Z2">
-        <v>1.546563950639663</v>
+        <v>1.124223602484472</v>
       </c>
       <c r="AA2">
-        <v>0.314821977609509</v>
+        <v>0.1743486323140673</v>
       </c>
       <c r="AB2">
-        <v>0.1239118129000512</v>
+        <v>0.108397913298502</v>
       </c>
       <c r="AC2">
-        <v>0.1909101647094578</v>
+        <v>0.06595071901556529</v>
       </c>
       <c r="AD2">
-        <v>84.90000000000001</v>
+        <v>128</v>
       </c>
       <c r="AE2">
-        <v>10.82781078048788</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>95.72781078048789</v>
+        <v>128</v>
       </c>
       <c r="AG2">
-        <v>-55.87218921951211</v>
+        <v>-18.69999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.04438361296252343</v>
+        <v>0.08453866983686679</v>
       </c>
       <c r="AI2">
-        <v>0.09699575767834921</v>
+        <v>0.127987201279872</v>
       </c>
       <c r="AJ2">
-        <v>-0.0278632626772542</v>
+        <v>-0.01367558870849787</v>
       </c>
       <c r="AK2">
-        <v>-0.06688654262248012</v>
+        <v>-0.02191235059760955</v>
       </c>
       <c r="AL2">
-        <v>35.6</v>
+        <v>36.2</v>
       </c>
       <c r="AM2">
-        <v>35.6</v>
+        <v>36.2</v>
       </c>
       <c r="AN2">
-        <v>0.4300476142234829</v>
+        <v>0.7264472190692396</v>
       </c>
       <c r="AO2">
-        <v>5.01685393258427</v>
+        <v>4.516574585635359</v>
       </c>
       <c r="AP2">
-        <v>-0.2830117982955734</v>
+        <v>-0.1061293984108966</v>
       </c>
       <c r="AQ2">
-        <v>5.01685393258427</v>
+        <v>4.516574585635359</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.148</v>
+        <v>0.121</v>
       </c>
       <c r="E3">
-        <v>0.194</v>
+        <v>0.07679999999999999</v>
       </c>
       <c r="G3">
-        <v>0.2601046815934865</v>
+        <v>0.3078990592802747</v>
       </c>
       <c r="H3">
-        <v>0.2601046815934865</v>
+        <v>0.3078990592802747</v>
       </c>
       <c r="I3">
-        <v>0.2625100870077093</v>
+        <v>0.2441391667911005</v>
       </c>
       <c r="J3">
-        <v>0.2035622112356219</v>
+        <v>0.155083590069419</v>
       </c>
       <c r="K3">
-        <v>121.3</v>
+        <v>98</v>
       </c>
       <c r="L3">
-        <v>0.1763594068043036</v>
+        <v>0.1463341794833508</v>
       </c>
       <c r="M3">
-        <v>41.41</v>
+        <v>23.25</v>
       </c>
       <c r="N3">
-        <v>0.02009121342972199</v>
+        <v>0.01677368155255754</v>
       </c>
       <c r="O3">
-        <v>0.3413849958779885</v>
+        <v>0.2372448979591837</v>
       </c>
       <c r="P3">
-        <v>38.7</v>
+        <v>20.3</v>
       </c>
       <c r="Q3">
-        <v>0.01877638154383582</v>
+        <v>0.01464540797922228</v>
       </c>
       <c r="R3">
-        <v>0.3190436933223413</v>
+        <v>0.2071428571428572</v>
       </c>
       <c r="S3">
-        <v>2.710000000000001</v>
+        <v>2.949999999999999</v>
       </c>
       <c r="T3">
-        <v>0.06544312967882156</v>
+        <v>0.1268817204301075</v>
       </c>
       <c r="U3">
-        <v>151.6</v>
+        <v>146.7</v>
       </c>
       <c r="V3">
-        <v>0.0735529571587987</v>
+        <v>0.1058365197316211</v>
       </c>
       <c r="W3">
-        <v>0.2219173069886571</v>
+        <v>0.1528622679769147</v>
       </c>
       <c r="X3">
-        <v>0.1267404634153667</v>
+        <v>0.1129633422907675</v>
       </c>
       <c r="Y3">
-        <v>0.09517684357329043</v>
+        <v>0.03989892568614717</v>
       </c>
       <c r="Z3">
-        <v>1.546563950639663</v>
+        <v>1.124223602484472</v>
       </c>
       <c r="AA3">
-        <v>0.314821977609509</v>
+        <v>0.1743486323140673</v>
       </c>
       <c r="AB3">
-        <v>0.1239118129000512</v>
+        <v>0.108397913298502</v>
       </c>
       <c r="AC3">
-        <v>0.1909101647094578</v>
+        <v>0.06595071901556529</v>
       </c>
       <c r="AD3">
-        <v>84.90000000000001</v>
+        <v>128</v>
       </c>
       <c r="AE3">
-        <v>10.82781078048788</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>95.72781078048789</v>
+        <v>128</v>
       </c>
       <c r="AG3">
-        <v>-55.87218921951211</v>
+        <v>-18.69999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.04438361296252343</v>
+        <v>0.08453866983686679</v>
       </c>
       <c r="AI3">
-        <v>0.09699575767834921</v>
+        <v>0.127987201279872</v>
       </c>
       <c r="AJ3">
-        <v>-0.0278632626772542</v>
+        <v>-0.01367558870849787</v>
       </c>
       <c r="AK3">
-        <v>-0.06688654262248012</v>
+        <v>-0.02191235059760955</v>
       </c>
       <c r="AL3">
-        <v>35.6</v>
+        <v>36.2</v>
       </c>
       <c r="AM3">
-        <v>35.6</v>
+        <v>36.2</v>
       </c>
       <c r="AN3">
-        <v>0.4300476142234829</v>
+        <v>0.7264472190692396</v>
       </c>
       <c r="AO3">
-        <v>5.01685393258427</v>
+        <v>4.516574585635359</v>
       </c>
       <c r="AP3">
-        <v>-0.2830117982955734</v>
+        <v>-0.1061293984108966</v>
       </c>
       <c r="AQ3">
-        <v>5.01685393258427</v>
+        <v>4.516574585635359</v>
       </c>
     </row>
   </sheetData>
